--- a/VLANs.xlsx
+++ b/VLANs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Courses\Python\python_Scripts_for_ISOv\OnLab Codes\Read_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA71BB3-F9C5-4757-8A0E-63B709F9A338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E3BB9-7889-43D9-9178-1EAD6E9EE91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,52 @@
       <c r="A6">
         <v>24</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VLANs.xlsx
+++ b/VLANs.xlsx
@@ -1,45 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Courses\Python\python_Scripts_for_ISOv\OnLab Codes\Read_Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E3BB9-7889-43D9-9178-1EAD6E9EE91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,25 +42,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -99,44 +64,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -166,12 +131,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -210,245 +175,300 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>VLAN</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Value</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="str">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="str">
         <v>34</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>36</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="str">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="str">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="str">
         <v>35</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/VLANs.xlsx
+++ b/VLANs.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,41 +390,38 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>34</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>24</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B7" t="str">
         <v>1</v>
@@ -432,43 +429,12 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>35</v>
-      </c>
-      <c r="B11" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>7</v>
-      </c>
-      <c r="B13" t="str">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
   </ignoredErrors>
 </worksheet>
 </file>